--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2291728.572734661</v>
+        <v>2288710.982333725</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>161.2199127411851</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>91.69209639443768</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>120.0258340400111</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.6102910700557</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>376.9688122184073</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>77.1591915718724</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>155.2662388797016</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>19.45240097060574</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.1278024409342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229334</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>80.30846669433862</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>195.8686293235218</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>144.4772566077851</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>198.7503859381794</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.5910067891963</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>140.2678835057465</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>17.65326778006239</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>238.0131998337536</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056524</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.7869937363944</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>88.85520853679114</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>71.18858666156088</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47.10157674263947</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206847</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2849,16 +2849,16 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>4.457019891756835</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.9576419790507</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>116.7095425323963</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467016</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>64.01339171876062</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>200.6431394079735</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>100.9515455091262</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.46272659366502</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.84822692072444</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.912423534854</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>961.9499065944426</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>961.9499065944426</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>961.9499065944426</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2154.689967648648</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>2154.689967648648</v>
       </c>
       <c r="X2" t="n">
-        <v>1717.512263598976</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1717.512263598976</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="3">
@@ -4419,10 +4419,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347316</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347316</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.0596212327002</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982757</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982757</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1971.274048960884</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1971.274048960884</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>484.4236418782187</v>
       </c>
       <c r="T7" t="n">
-        <v>352.6741383092202</v>
+        <v>484.4236418782187</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782187</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782187</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1568.353113282533</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2677.500201148924</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2677.500201148924</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2677.500201148924</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2677.500201148924</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2346.437313805353</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.668658535239</v>
       </c>
       <c r="X8" t="n">
-        <v>2134.880026519315</v>
+        <v>1620.202900274159</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.952953346655</v>
+        <v>1620.202900274159</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282827</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9525926458896</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>135.0626451479792</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>135.0626451479792</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.712065060056</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.712065060056</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>500.8649647332663</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5045,43 +5045,43 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,34 +5106,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.5144361003022</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>501.5782531723953</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>501.5782531723953</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1244.231782352011</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983195</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X13" t="n">
-        <v>670.5144361003022</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.5144361003022</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,10 +5288,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5309,7 +5309,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5361,16 +5361,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>638.3691419079764</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.2468244550147</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1357.231539744017</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1133.446124533523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1133.446124533523</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.446124533523</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0289544965622</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>616.0394035985448</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y16" t="n">
-        <v>395.2468244550147</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,31 +5528,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2479.815397437606</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>2628.885081639666</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>2875.65020954613</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>3644.018355938592</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>4843.022989398068</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>4843.022989398068</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>4588.338501192181</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>4298.92133115522</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>4070.931780257203</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>4070.931780257203</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3907.60313536346</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="C22" t="n">
-        <v>3907.60313536346</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="D22" t="n">
-        <v>3757.486495951125</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="E22" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>4437.149147719352</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.020508932908</v>
+        <v>4148.02050893291</v>
       </c>
       <c r="V22" t="n">
-        <v>3907.60313536346</v>
+        <v>3893.336020727023</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.60313536346</v>
+        <v>3603.918850690063</v>
       </c>
       <c r="X22" t="n">
-        <v>3907.60313536346</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="Y22" t="n">
-        <v>3907.60313536346</v>
+        <v>3459.155393916677</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4076.539318291367</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="C25" t="n">
-        <v>3907.60313536346</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="D25" t="n">
-        <v>3757.486495951125</v>
+        <v>549.3807322743211</v>
       </c>
       <c r="E25" t="n">
-        <v>3609.573402368731</v>
+        <v>401.467638691928</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368731</v>
+        <v>254.5776911940176</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4771.101837118544</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4547.316421908049</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4258.187783121607</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>4258.187783121607</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>4258.187783121607</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>4258.187783121607</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y25" t="n">
-        <v>4258.187783121607</v>
+        <v>731.0291971045608</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.6898113736385</v>
+        <v>337.3000764349712</v>
       </c>
       <c r="C28" t="n">
-        <v>703.7536284457316</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>553.6369890333958</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>553.6369890333958</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>406.7470415354854</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X28" t="n">
-        <v>1275.130855347408</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y28" t="n">
-        <v>1054.338276203878</v>
+        <v>337.3000764349712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1494.414230263199</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1494.414230263199</v>
+        <v>1301.989359467952</v>
       </c>
       <c r="T31" t="n">
-        <v>1270.628815052704</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.628815052704</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V31" t="n">
-        <v>1270.628815052704</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W31" t="n">
-        <v>1270.628815052704</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>1042.639264154687</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.846685011157</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6713,7 +6713,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6780,13 +6780,13 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>339.7502131046251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
         <v>2051.878056918008</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>943.2631727657036</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C34" t="n">
-        <v>943.2631727657036</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D34" t="n">
-        <v>793.1465333533679</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E34" t="n">
-        <v>645.2334397709748</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>4452.03918220107</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.055751909234</v>
+        <v>4197.354693995183</v>
       </c>
       <c r="W34" t="n">
-        <v>1164.055751909234</v>
+        <v>3907.937523958222</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.055751909234</v>
+        <v>3679.947973060205</v>
       </c>
       <c r="Y34" t="n">
-        <v>943.2631727657036</v>
+        <v>3459.155393916675</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,10 +7023,10 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
         <v>2331.418122136705</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.5869961536295</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="C37" t="n">
-        <v>441.5869961536295</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D37" t="n">
-        <v>441.5869961536295</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
         <v>208.7516828383384</v>
@@ -7090,19 +7090,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7120,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>761.4659040389541</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273993</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="W37" t="n">
-        <v>844.0280401273993</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="X37" t="n">
-        <v>844.0280401273993</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="Y37" t="n">
-        <v>623.2354609838692</v>
+        <v>506.7814158330673</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7178,7 +7178,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,22 +7199,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>493.9913906306158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>346.0782970482227</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>199.1883495503123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>199.1883495503123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>199.1883495503123</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>644.1080300429516</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>644.1080300429516</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,22 +7409,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3751.319982033638</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3720.806624707055</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>3720.806624707055</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>3570.689985294719</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.689985294719</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>3570.689985294719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3570.689985294719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916667</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380576</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625188</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636317</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4805.841717869176</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4605.921707784729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4605.921707784729</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>4605.921707784729</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>4351.237219578842</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>4351.237219578842</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>4123.247668680825</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>3902.455089537294</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7634,13 +7634,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2871.326567796375</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>3118.091695702839</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.411828982801</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>3755.274456646834</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>4034.814521865531</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3926.12130983931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4660.934562929845</v>
+        <v>1495.534759785415</v>
       </c>
       <c r="T46" t="n">
-        <v>4437.14914771935</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U46" t="n">
-        <v>4148.020508932908</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V46" t="n">
-        <v>4148.020508932908</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W46" t="n">
-        <v>4148.020508932908</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>4148.020508932908</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>4107.76977466955</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719087</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627892</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8769,28 +8769,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>104.8749102765738</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,16 +9249,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4116509503156</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>285.1031356539328</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>91.23759968302096</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10428,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>52.49733361305235</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714844</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10671,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>15.83804904622843</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>145.2351313103794</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>414.5002179180822</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>223.6742649934466</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>1.956706038784034</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>87.77261239841161</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>90.65581430943153</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>57.65292647785674</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>57.18000134477735</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099835998</v>
       </c>
       <c r="T19" t="n">
-        <v>203.8942932783269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>14.12444349007444</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338133</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>10.70657472698318</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>109.0656014468121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.05823443706696</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>119.3919917207381</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>105.507332512036</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>28.71150549053492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518758</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>82.42057092780855</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>85.59421299060381</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>9.467699955145775</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.50162581012776</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26071,25 +26071,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>178.7364264313703</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835418.9013800522</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800522</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835418.9013800523</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327922</v>
       </c>
       <c r="J2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327916</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>5.596890472448789e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.5006543096</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430954</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.5006543096</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254457.4621147106</v>
+        <v>-254872.6766241777</v>
       </c>
       <c r="C6" t="n">
-        <v>335510.417099834</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335510.4170998337</v>
+        <v>335095.2025903668</v>
       </c>
       <c r="E6" t="n">
-        <v>-84418.17944713007</v>
+        <v>-84752.34841425996</v>
       </c>
       <c r="F6" t="n">
-        <v>440741.8570297662</v>
+        <v>440407.6880626368</v>
       </c>
       <c r="G6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626368</v>
       </c>
       <c r="H6" t="n">
-        <v>440741.8570297662</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="I6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="J6" t="n">
-        <v>264318.6378371732</v>
+        <v>263984.4688700433</v>
       </c>
       <c r="K6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="L6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="M6" t="n">
-        <v>305940.8417959288</v>
+        <v>305606.6728287992</v>
       </c>
       <c r="N6" t="n">
-        <v>440741.857029766</v>
+        <v>440407.6880626359</v>
       </c>
       <c r="O6" t="n">
-        <v>440741.8570297661</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="P6" t="n">
-        <v>440741.8570297658</v>
+        <v>440407.6880626365</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>245.6561330005263</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>236.0601620756972</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>105.683821349026</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.1235505934249</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.961557853854515</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481175</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>209.1226826701053</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>131.2567594568894</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.02600160420602</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>208.1101362151194</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>75.86242214745653</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>29.16647613456249</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29569,16 +29569,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.764145501931408e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.996113090560987e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>8.171460089775232e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554464</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633793</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647355</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141105</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118891</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034979</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0534542921061915</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078608</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644439</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302235</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175839</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383796</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678005</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624598</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307157</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871395</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873145</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187023</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>354.1326152325991</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>146.7850892314805</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>544.8360280007819</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,13 +36446,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>618.2977090519457</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,16 +36683,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>373.6013019241291</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>203.0727722009916</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109142</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37391,13 +37391,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>326.2624260966948</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
@@ -37546,7 +37546,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,7 +37865,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>724.9245949685485</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37944,7 +37944,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789807</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -38035,10 +38035,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>374.2497035813859</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,7 +38108,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2288710.982333725</v>
+        <v>2364240.651998531</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>347.1196427677075</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>91.69209639443768</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>194.027083666163</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.6102910700557</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>342.0186333331422</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>110.0115294480441</v>
       </c>
       <c r="W7" t="n">
-        <v>155.2662388797016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>19.45240097060574</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>362.2527184985273</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>195.8686293235218</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>146.4838245164156</v>
       </c>
       <c r="W13" t="n">
-        <v>198.7503859381794</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>76.5910067891963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.6519788371599</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>170.2435559338558</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056524</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.7869937363944</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>167.7583735618568</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.18858666156088</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>55.49902558409078</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>95.02525064967648</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.9576419790507</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527387</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>183.9000377645368</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1796758467016</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>76.05438279753314</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6431394079735</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.13491291997147</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>51.20625775179418</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.347695664762796</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1602.48111343776</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1233.518596497348</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2154.689967648648</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2154.689967648648</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.224209387568</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1228.366061714959</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304454</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304454</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960884</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960884</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960884</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1971.274048960884</v>
+        <v>1228.366061714959</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4723,43 +4725,43 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782187</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782187</v>
+        <v>617.0062271882081</v>
       </c>
       <c r="W7" t="n">
         <v>327.5890571512475</v>
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
         <v>864.6405432696254</v>
@@ -4793,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2677.500201148924</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2346.437313805353</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.668658535239</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.202900274159</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8649647332663</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>709.5665374816297</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5108,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0432218861031</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5218,31 +5220,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557898</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557898</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557898</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557898</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352011</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="W13" t="n">
-        <v>1043.47381675789</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="X13" t="n">
-        <v>815.4842658598729</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.6916867163428</v>
+        <v>527.0436439308535</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,16 +5296,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.5883316929525</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364826</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929525</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5494,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>903.2476574509849</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>903.2476574509849</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>903.2476574509849</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.1079791745888</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5731,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,13 +5785,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929846</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.149147719352</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4148.02050893291</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>3893.336020727023</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>3603.918850690063</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>549.3807322743211</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C25" t="n">
-        <v>549.3807322743211</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D25" t="n">
-        <v>549.3807322743211</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>401.467638691928</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>254.5776911940176</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>905.7579426752263</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>905.7579426752263</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045608</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="X25" t="n">
-        <v>731.0291971045608</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y25" t="n">
-        <v>731.0291971045608</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6211,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6266,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>337.3000764349712</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1442.856648755791</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1219.071233545296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>929.9425947588544</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765186</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X28" t="n">
-        <v>558.0926555785013</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y28" t="n">
-        <v>337.3000764349712</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,28 +6463,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6503,10 +6505,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>807.0580565471719</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>638.121873619265</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>488.0052342069292</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>340.0921406245361</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>193.2021931266258</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>193.2021931266258</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>193.2021931266258</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6646,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1301.989359467952</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1078.203944257458</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>789.0753054710162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>789.0753054710162</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155868</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805449</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822441</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,25 +6727,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1202.083553216155</v>
       </c>
       <c r="U34" t="n">
-        <v>4452.03918220107</v>
+        <v>912.9549144297137</v>
       </c>
       <c r="V34" t="n">
-        <v>4197.354693995183</v>
+        <v>912.9549144297137</v>
       </c>
       <c r="W34" t="n">
-        <v>3907.937523958222</v>
+        <v>623.537744392753</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060205</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>506.7814158330673</v>
+        <v>657.199424285124</v>
       </c>
       <c r="C37" t="n">
-        <v>506.7814158330673</v>
+        <v>657.199424285124</v>
       </c>
       <c r="D37" t="n">
-        <v>356.6647764207315</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
@@ -7102,43 +7104,43 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471155</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1422.093661671502</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1422.093661671502</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1422.093661671502</v>
       </c>
       <c r="U37" t="n">
-        <v>761.4659040389541</v>
+        <v>1422.093661671502</v>
       </c>
       <c r="V37" t="n">
-        <v>506.7814158330673</v>
+        <v>1167.409173465615</v>
       </c>
       <c r="W37" t="n">
-        <v>506.7814158330673</v>
+        <v>877.9920034286541</v>
       </c>
       <c r="X37" t="n">
-        <v>506.7814158330673</v>
+        <v>877.9920034286541</v>
       </c>
       <c r="Y37" t="n">
-        <v>506.7814158330673</v>
+        <v>657.199424285124</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7178,7 +7180,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,28 +7198,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>559.3999450277967</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>806.1650729342607</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1113.485206214222</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.347833878255</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>147.8584176420752</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>147.8584176420752</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>147.8584176420752</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7487,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7597,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1495.534759785415</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10601,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714844</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>148.2747143566552</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>105.6538188074124</v>
       </c>
       <c r="W13" t="n">
-        <v>87.77261239841161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>90.65581430943153</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>57.18000134477735</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099835998</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>115.9937964647216</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338133</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>10.70657472698318</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>118.4789788367206</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>96.05823443706696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4217843995125</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>15.3939948145955</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>2.963168004552585</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>37.64752329385246</v>
       </c>
       <c r="U34" t="n">
-        <v>103.0576765518758</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>33.90996960625965</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>85.59421299060381</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>60.28433254430051</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>116.0405633468337</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>194.5731143188405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="14">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049992</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.683632792</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327922</v>
@@ -26338,22 +26340,22 @@
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327916</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26427,37 +26429,37 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="M4" t="n">
         <v>15045.66962143904</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26493,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26521,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241777</v>
+        <v>-254872.6766241774</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903667</v>
+        <v>335095.2025903669</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903664</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425996</v>
+        <v>-84752.34841425942</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626368</v>
+        <v>440407.6880626365</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626368</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626364</v>
+        <v>440407.6880626363</v>
       </c>
       <c r="I6" t="n">
         <v>440407.6880626365</v>
@@ -26546,22 +26548,22 @@
         <v>263984.4688700433</v>
       </c>
       <c r="K6" t="n">
+        <v>440407.6880626365</v>
+      </c>
+      <c r="L6" t="n">
         <v>440407.6880626364</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>305606.6728287993</v>
+      </c>
+      <c r="N6" t="n">
         <v>440407.6880626365</v>
       </c>
-      <c r="M6" t="n">
-        <v>305606.6728287992</v>
-      </c>
-      <c r="N6" t="n">
-        <v>440407.6880626359</v>
-      </c>
       <c r="O6" t="n">
-        <v>440407.6880626363</v>
+        <v>440407.6880626364</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.6880626365</v>
+        <v>440407.688062636</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,16 +26752,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26820,16 +26822,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.563398852975411</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>236.0601620756972</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>92.49591467042799</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.1235505934249</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.66440828754077</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.1261138757839</v>
       </c>
       <c r="W7" t="n">
-        <v>131.2567594568894</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>35.02600160420602</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>23.98522015752627</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>128.2883697226011</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>29.16647613456249</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30174,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-2.383967682258759e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624598</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187023</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109142</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789688</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37546,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>298.8501529445944</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,10 +38110,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364240.651998531</v>
+        <v>2357223.63710682</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>347.1196427677075</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.54424566903386</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>194.027083666163</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>155.4526127311944</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>342.0186333331422</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>224.9819507527982</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>362.2527184985273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>54.63122185700612</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>146.4838245164156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>81.32327538429553</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.92656778835364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>207.9296784859477</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>170.2435559338558</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7583735618568</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.49902558409078</v>
+        <v>118.4898845065081</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>95.02525064967648</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527387</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>183.9000377645368</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>49.14757544257668</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>76.05438279753314</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.13491291997147</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>51.20625775179418</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1602.48111343776</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>1233.518596497348</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2399.403219121936</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2068.340331778365</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,28 +4509,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>210.965822962985</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.366061714959</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.366061714959</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.505393690771</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.505393690771</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y5" t="n">
-        <v>1228.366061714959</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>617.0062271882081</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1408.137349737077</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1039.174832796665</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>680.909134189915</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>295.1208815916708</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2168.202948062279</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>1794.737189801199</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1794.737189801199</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,19 +4883,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="C10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="D10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,43 +4971,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W10" t="n">
-        <v>709.5665374816297</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="X10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.5665374816297</v>
+        <v>245.4549451025305</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,16 +5041,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.0436439308535</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C13" t="n">
-        <v>527.0436439308535</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>527.0436439308535</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>527.0436439308535</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X13" t="n">
-        <v>527.0436439308535</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.0436439308535</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5372,7 +5372,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.4856756861153</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C16" t="n">
-        <v>699.5494927582084</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D16" t="n">
-        <v>549.4328533458727</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E16" t="n">
-        <v>401.5197597634796</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5197597634796</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1288.886292289268</v>
       </c>
       <c r="X16" t="n">
-        <v>1270.926719659885</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.134140516355</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,7 +5515,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>903.2476574509849</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>903.2476574509849</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>903.2476574509849</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,28 +5928,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1595.645765494012</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158045</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>905.7579426752263</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>905.7579426752263</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>616.3407726382658</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>616.3407726382658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,64 +6211,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6405,31 +6405,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S28" t="n">
-        <v>1442.856648755791</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1219.071233545296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>929.9425947588544</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>675.2581065529675</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>675.2581065529675</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>675.2581065529675</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6505,10 +6505,10 @@
         <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>807.0580565471719</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>638.121873619265</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>488.0052342069292</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>340.0921406245361</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>193.2021931266258</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>193.2021931266258</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>193.2021931266258</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.499100520942</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>988.7065213774116</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155868</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805449</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822441</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.083553216155</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>912.9549144297137</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9549144297137</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>623.537744392753</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095317</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001781</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281742</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945775</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164473</v>
+        <v>2050.644882483982</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>657.199424285124</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C37" t="n">
-        <v>657.199424285124</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D37" t="n">
-        <v>507.0827848727882</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471155</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1422.093661671502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1422.093661671502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1422.093661671502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.093661671502</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.409173465615</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>877.9920034286541</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>877.9920034286541</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.199424285124</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7195,31 +7195,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>613.8011874802282</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C40" t="n">
-        <v>444.8650045523214</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D40" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>294.7483651399856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>147.8584176420752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>147.8584176420752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>147.8584176420752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7371,13 +7371,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352015</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.242231453998</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.449652310468</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7842,16 +7842,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360585</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>288.4091825776756</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>127.6461250100642</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>62.79465928983132</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>105.6538188074124</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>137.2613779677993</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>44.2079648378803</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>115.9937964647216</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>118.4789788367206</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4217843995125</v>
+        <v>79.43092547709519</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>15.3939948145955</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>37.64752329385246</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.90996960625965</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25371,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>60.28433254430051</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>116.0405633468337</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049992</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049985</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327919</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="J2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327924</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="O2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327917</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26447,10 +26447,10 @@
         <v>15045.66962143906</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143905</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241774</v>
+        <v>-254872.6766241776</v>
       </c>
       <c r="C6" t="n">
+        <v>335095.2025903668</v>
+      </c>
+      <c r="D6" t="n">
         <v>335095.2025903669</v>
       </c>
-      <c r="D6" t="n">
-        <v>335095.2025903664</v>
-      </c>
       <c r="E6" t="n">
-        <v>-84752.34841425942</v>
+        <v>-85726.93967398141</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626363</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029144</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700433</v>
+        <v>263009.8776103221</v>
       </c>
       <c r="K6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029146</v>
       </c>
       <c r="L6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="M6" t="n">
-        <v>305606.6728287993</v>
+        <v>304632.081569078</v>
       </c>
       <c r="N6" t="n">
-        <v>440407.6880626365</v>
+        <v>439433.0968029147</v>
       </c>
       <c r="O6" t="n">
-        <v>440407.6880626364</v>
+        <v>439433.0968029145</v>
       </c>
       <c r="P6" t="n">
-        <v>440407.688062636</v>
+        <v>439433.0968029147</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,13 +26755,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26773,10 +26773,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26828,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>7.563398852975411</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>130.8714671399376</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>92.49591467042799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>63.13204062090043</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.66440828754077</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>168.4323246176523</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>142.1261138757839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>181.8940949889132</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.98522015752627</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,19 +28022,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>101.539666984789</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>128.2883697226011</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-2.584460300934504e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-2.383967682258759e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31518,10 +31518,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187837</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>410.0098272511725</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718708</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>269.888074221356</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789688</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2357223.63710682</v>
+        <v>2362162.899955851</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>87.55000945661816</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>43.54424566903386</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>49.9899113806424</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.4526127311944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>187.1086023358197</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>5.983388191319154</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>224.9819507527982</v>
+        <v>144.3691080882215</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.63122185700612</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>52.85894157036417</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.32327538429553</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.5104169322369</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>207.9296784859477</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>186.9338896468053</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3228038217186</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>118.4898845065081</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>250.0068403603052</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.14757544257668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>567.286643657864</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>560.3411429086606</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>142.3773348068474</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>142.3773348068474</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.165004483845</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2653.165004483845</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2399.403219121936</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2068.340331778365</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1715.571676508251</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1342.105918247171</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>210.965822962985</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>807.3934508328821</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>396.4075460432745</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2636.076575092838</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2305.013687749267</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.245032479153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.779274218073</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1188.639942242261</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1408.137349737077</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="C8" t="n">
-        <v>1039.174832796665</v>
+        <v>571.9594663958185</v>
       </c>
       <c r="D8" t="n">
-        <v>680.909134189915</v>
+        <v>213.693767789068</v>
       </c>
       <c r="E8" t="n">
-        <v>295.1208815916708</v>
+        <v>213.693767789068</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062279</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801199</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.737189801199</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="F10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="G10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005478</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005478</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.4549451025305</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.3120936331045</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>595.5296422260202</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>445.4130028136844</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>297.4999092312913</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>150.609961733381</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X13" t="n">
-        <v>792.456816243504</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.3120936331045</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>792.456816243504</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>623.5206333155971</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>473.4039939032614</v>
       </c>
       <c r="E16" t="n">
         <v>412.2823606383756</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1288.886292289268</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1288.886292289268</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.896741391251</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.896741391251</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,13 +5764,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494012</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1925.508393158045</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,10 +6220,10 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6235,10 +6235,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231263</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6405,31 +6405,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1379.229518531123</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,52 +6697,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7131,16 +7131,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>760.7169704793943</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,22 +7159,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360585</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>288.4091825776756</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978268</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>127.6461250100642</v>
+        <v>116.9087390531963</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>62.79465928983132</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.6346268930134</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.2613779677993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>85.92354571433228</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>44.2079648378803</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>38.77576574223181</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43092547709519</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>36.51615797628583</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25371,7 +25371,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="G2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="G2" t="n">
-        <v>547440.6836327921</v>
-      </c>
       <c r="H2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="L2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327924</v>
+        <v>547440.6836327923</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="O2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
         <v>547440.6836327921</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26441,10 +26441,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.66962143915</v>
+      </c>
+      <c r="K4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15045.66962143906</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,34 +26475,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254872.6766241776</v>
+        <v>-254872.6766241774</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903668</v>
+        <v>335095.2025903666</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903669</v>
+        <v>335095.2025903665</v>
       </c>
       <c r="E6" t="n">
-        <v>-85726.93967398141</v>
+        <v>-84849.8075402316</v>
       </c>
       <c r="F6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="G6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="H6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="I6" t="n">
-        <v>439433.0968029144</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="J6" t="n">
-        <v>263009.8776103221</v>
+        <v>263887.0097440711</v>
       </c>
       <c r="K6" t="n">
-        <v>439433.0968029146</v>
+        <v>440310.2289366641</v>
       </c>
       <c r="L6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366642</v>
       </c>
       <c r="M6" t="n">
-        <v>304632.081569078</v>
+        <v>305509.2137028273</v>
       </c>
       <c r="N6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="O6" t="n">
-        <v>439433.0968029145</v>
+        <v>440310.2289366644</v>
       </c>
       <c r="P6" t="n">
-        <v>439433.0968029147</v>
+        <v>440310.2289366642</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,40 +26737,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.656844941799826e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>64.38130678824309</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8714671399376</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.13204062090043</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>226.6755676849753</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>168.4323246176523</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>181.8940949889132</v>
+        <v>262.50693765349</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>101.539666984789</v>
+        <v>29.16647613456234</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.86613090076546e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2.584460300934504e-12</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>570.7728848187837</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713073</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>410.0098272511725</v>
+        <v>399.2724412943044</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507419</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718708</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>269.888074221356</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
